--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34069.04924483594</v>
+        <v>33390.8679373039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183201</v>
+        <v>311885.1970183193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>79.87637266798697</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="H11" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.758864737813663</v>
+        <v>28.20762267428244</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407752</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="U12" t="n">
-        <v>53.44972541148312</v>
+        <v>43.01612417394768</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801259</v>
+        <v>46.43735102801261</v>
       </c>
       <c r="W12" t="n">
-        <v>72.49301368962193</v>
+        <v>72.49301368962196</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208095</v>
+        <v>39.67595657810831</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663596</v>
+        <v>29.17271624663599</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278811</v>
+        <v>9.003274493278829</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393263</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521121</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269442</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706027</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194569</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085287</v>
+        <v>27.7078855208529</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677876</v>
+        <v>22.92970292677879</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>108.0839953422691</v>
+        <v>108.0839953422695</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>112.4084155782694</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>122.7111663740567</v>
+        <v>20.73635203332422</v>
       </c>
       <c r="U15" t="n">
         <v>43.0161241739476</v>
       </c>
       <c r="V15" t="n">
-        <v>122.7111663740567</v>
+        <v>46.43735102801253</v>
       </c>
       <c r="W15" t="n">
         <v>72.49301368962188</v>
@@ -1752,7 +1752,7 @@
         <v>23.10134455208089</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.24865939747698</v>
+        <v>29.1727162466359</v>
       </c>
     </row>
     <row r="16">
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278756</v>
+        <v>9.003274493278743</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393255</v>
+        <v>41.14309824393254</v>
       </c>
       <c r="T16" t="n">
         <v>29.52954681521112</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924051</v>
+        <v>53.44089762924068</v>
       </c>
       <c r="C17" t="n">
-        <v>29.559154632586</v>
+        <v>29.55915463258617</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363476</v>
+        <v>17.12581689363464</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304334</v>
+        <v>50.83256931304351</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142066</v>
+        <v>82.55290689142083</v>
       </c>
       <c r="G17" t="n">
-        <v>98.1811645742734</v>
+        <v>98.18116457427357</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653691</v>
+        <v>26.26582637653707</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605591989</v>
+        <v>0.2334408605594288</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717407</v>
+        <v>17.25012107717424</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611331</v>
+        <v>39.13637154611348</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985707</v>
+        <v>61.63922466985724</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9170629367956644</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>50.00696465057982</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924051</v>
+        <v>53.44089762924068</v>
       </c>
       <c r="C20" t="n">
-        <v>29.559154632586</v>
+        <v>29.55915463258617</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363446</v>
+        <v>17.12581689363464</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304334</v>
+        <v>50.83256931304351</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142066</v>
+        <v>82.55290689142032</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427395</v>
+        <v>98.18116457427357</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653689</v>
+        <v>26.26582637653706</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605591989</v>
+        <v>0.2334408605593694</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717407</v>
+        <v>17.25012107717424</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611331</v>
+        <v>39.13637154611348</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985707</v>
+        <v>61.63922466985724</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.00696465057941</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="Y21" t="n">
-        <v>122.7111663740567</v>
+        <v>0.917062936796002</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924051</v>
+        <v>53.44089762924068</v>
       </c>
       <c r="C23" t="n">
-        <v>29.559154632586</v>
+        <v>29.55915463258617</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363446</v>
+        <v>17.12581689363464</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304334</v>
+        <v>50.83256931304351</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142066</v>
+        <v>82.55290689142083</v>
       </c>
       <c r="G23" t="n">
-        <v>98.1811645742734</v>
+        <v>98.18116457427357</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653689</v>
+        <v>26.26582637653706</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605591989</v>
+        <v>0.2334408605593694</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717407</v>
+        <v>17.25012107717424</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611331</v>
+        <v>39.13637154611348</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985707</v>
+        <v>61.63922466985724</v>
       </c>
     </row>
     <row r="24">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>108.0839953422694</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="U24" t="n">
-        <v>56.14797543907064</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="X24" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>137.2849133148962</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E26" t="n">
         <v>158.5583279953535</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148486</v>
+        <v>27.67799807148488</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562553</v>
+        <v>14.35336722562555</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389419</v>
+        <v>9.498608495389444</v>
       </c>
       <c r="U26" t="n">
-        <v>37.22910417518452</v>
+        <v>37.22910417518453</v>
       </c>
       <c r="V26" t="n">
         <v>107.9591995428694</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X26" t="n">
         <v>146.8621302284235</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>16.99123977789042</v>
       </c>
       <c r="S27" t="n">
-        <v>86.41684453181279</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431282</v>
+        <v>2.02733785443131</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505465</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911959</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78399951072893</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373187946</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774296</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503961</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631818</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380139</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V28" t="n">
-        <v>32.18843111816724</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305267</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X28" t="n">
-        <v>8.99887134195987</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.22068874788576</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="29">
@@ -2798,10 +2798,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953536</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737309</v>
       </c>
       <c r="G29" t="n">
         <v>205.9069232565836</v>
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.6779980714849</v>
+        <v>27.67799807148491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35336722562556</v>
+        <v>14.35336722562558</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389448</v>
+        <v>9.498608495389472</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518455</v>
+        <v>37.22910417518457</v>
       </c>
       <c r="V29" t="n">
         <v>107.9591995428694</v>
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.96953259395569</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.027337854431311</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U30" t="n">
-        <v>24.30710999505468</v>
+        <v>24.30710999505471</v>
       </c>
       <c r="V30" t="n">
-        <v>196.6801614477533</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78399951072896</v>
+        <v>53.78399951072899</v>
       </c>
       <c r="X30" t="n">
-        <v>4.392330373187974</v>
+        <v>4.392330373188003</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774299</v>
+        <v>10.46370206774301</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503963</v>
+        <v>22.43408406503966</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631821</v>
+        <v>10.82053263631824</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380142</v>
+        <v>75.73571194380145</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816727</v>
+        <v>32.1884311181673</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305269</v>
+        <v>77.39012302305272</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959898</v>
+        <v>8.998871341959926</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885788</v>
+        <v>4.220688747885816</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1666563115506</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2849133148961</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
         <v>158.5583279953535</v>
@@ -3041,13 +3041,13 @@
         <v>190.2786655737308</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9069232565835</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H32" t="n">
-        <v>133.991585058847</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3533672256255</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389391</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518449</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9591995428693</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8621302284234</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="33">
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6804106468432</v>
+        <v>49.30371805066528</v>
       </c>
       <c r="I33" t="n">
-        <v>41.90213856221214</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431253</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505462</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V33" t="n">
-        <v>27.72833684911956</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W33" t="n">
-        <v>53.7839995107289</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187917</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774293</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503958</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631815</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380136</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816722</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305264</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959841</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885731</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888889</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922344</v>
       </c>
       <c r="D35" t="n">
-        <v>89.4609488532831</v>
+        <v>89.4609488532829</v>
       </c>
       <c r="E35" t="n">
-        <v>123.167701272692</v>
+        <v>123.1677012726918</v>
       </c>
       <c r="F35" t="n">
-        <v>154.8880388510693</v>
+        <v>154.8880388510691</v>
       </c>
       <c r="G35" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339218</v>
       </c>
       <c r="H35" t="n">
-        <v>98.60095833618553</v>
+        <v>98.60095833618533</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522994</v>
+        <v>1.838477452522795</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020783</v>
+        <v>72.56857282020763</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682271</v>
+        <v>89.58525303682251</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057619</v>
+        <v>111.4715035057617</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.9743566295057</v>
+        <v>133.9743566295055</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>147.5423696418944</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.350966885446391</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.39337278806741</v>
+        <v>18.39337278806721</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113986</v>
+        <v>40.34508522113966</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039114</v>
+        <v>41.99949630039094</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888889</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922344</v>
       </c>
       <c r="D38" t="n">
-        <v>89.4609488532831</v>
+        <v>89.4609488532829</v>
       </c>
       <c r="E38" t="n">
-        <v>123.167701272692</v>
+        <v>123.1677012726918</v>
       </c>
       <c r="F38" t="n">
-        <v>154.8880388510693</v>
+        <v>154.8880388510691</v>
       </c>
       <c r="G38" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339218</v>
       </c>
       <c r="H38" t="n">
-        <v>98.60095833618553</v>
+        <v>98.60095833618533</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522994</v>
+        <v>1.838477452522795</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020783</v>
+        <v>72.56857282020763</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682271</v>
+        <v>89.58525303682251</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057619</v>
+        <v>111.4715035057617</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.9743566295057</v>
+        <v>133.9743566295055</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>21.21417429470385</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
-        <v>72.91601901999491</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>18.39337278806721</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113986</v>
+        <v>40.34508522113966</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039114</v>
+        <v>41.99949630039094</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>75.67389642117612</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>12.43881935632345</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4062,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>65.51924996972463</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491283</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763469263</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>27.79612520482157</v>
+        <v>26.10600143924404</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304.5738074498148</v>
+        <v>257.718239520141</v>
       </c>
       <c r="C11" t="n">
-        <v>304.5738074498148</v>
+        <v>257.718239520141</v>
       </c>
       <c r="D11" t="n">
-        <v>304.5738074498148</v>
+        <v>257.718239520141</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5738074498148</v>
+        <v>257.718239520141</v>
       </c>
       <c r="F11" t="n">
-        <v>304.5738074498148</v>
+        <v>257.718239520141</v>
       </c>
       <c r="G11" t="n">
-        <v>180.6231343447069</v>
+        <v>133.7675664150328</v>
       </c>
       <c r="H11" t="n">
-        <v>56.67246123959914</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J11" t="n">
-        <v>126.9687252395235</v>
+        <v>24.5658013546046</v>
       </c>
       <c r="K11" t="n">
-        <v>141.934822585575</v>
+        <v>24.5658013546046</v>
       </c>
       <c r="L11" t="n">
-        <v>190.3219518367867</v>
+        <v>146.0498560649211</v>
       </c>
       <c r="M11" t="n">
-        <v>273.0379160149498</v>
+        <v>228.7658202430844</v>
       </c>
       <c r="N11" t="n">
-        <v>350.2498749533993</v>
+        <v>350.2498749534009</v>
       </c>
       <c r="O11" t="n">
-        <v>386.2495795577944</v>
+        <v>386.249579557796</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577944</v>
+        <v>386.249579557796</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="T11" t="n">
-        <v>485.027630407526</v>
+        <v>462.3521173403876</v>
       </c>
       <c r="U11" t="n">
-        <v>428.5244805549225</v>
+        <v>462.3521173403876</v>
       </c>
       <c r="V11" t="n">
-        <v>304.5738074498148</v>
+        <v>462.3521173403876</v>
       </c>
       <c r="W11" t="n">
-        <v>304.5738074498148</v>
+        <v>462.3521173403876</v>
       </c>
       <c r="X11" t="n">
-        <v>304.5738074498148</v>
+        <v>462.3521173403876</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.5738074498148</v>
+        <v>338.4014442352794</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="C12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="D12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="E12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924534</v>
+        <v>48.69249843149195</v>
       </c>
       <c r="L12" t="n">
-        <v>128.376484278129</v>
+        <v>48.69249843149195</v>
       </c>
       <c r="M12" t="n">
-        <v>249.8605389884451</v>
+        <v>170.1765531418085</v>
       </c>
       <c r="N12" t="n">
-        <v>371.3445936987612</v>
+        <v>291.660607852125</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779807</v>
+        <v>413.1446625624415</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.6416242957305</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R12" t="n">
-        <v>484.6416242957305</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="S12" t="n">
-        <v>360.6909511906227</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="T12" t="n">
-        <v>236.740278085515</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="U12" t="n">
-        <v>182.7506564577543</v>
+        <v>323.4433619123852</v>
       </c>
       <c r="V12" t="n">
-        <v>135.8442412779436</v>
+        <v>276.5369467325744</v>
       </c>
       <c r="W12" t="n">
-        <v>62.61897492479009</v>
+        <v>203.3116803794209</v>
       </c>
       <c r="X12" t="n">
-        <v>39.28428345804166</v>
+        <v>163.2349565631499</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.816893309924534</v>
+        <v>133.7675664150328</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924534</v>
+        <v>16.78151937066319</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924534</v>
+        <v>68.79159375907618</v>
       </c>
       <c r="F13" t="n">
-        <v>64.54873410217812</v>
+        <v>68.79159375907618</v>
       </c>
       <c r="G13" t="n">
-        <v>64.54873410217812</v>
+        <v>68.79159375907618</v>
       </c>
       <c r="H13" t="n">
-        <v>64.54873410217812</v>
+        <v>68.79159375907618</v>
       </c>
       <c r="I13" t="n">
-        <v>64.54873410217812</v>
+        <v>68.79159375907618</v>
       </c>
       <c r="J13" t="n">
-        <v>138.1158400119437</v>
+        <v>142.3586996688418</v>
       </c>
       <c r="K13" t="n">
-        <v>259.5998947222598</v>
+        <v>263.8427543791583</v>
       </c>
       <c r="L13" t="n">
-        <v>259.5998947222598</v>
+        <v>263.8427543791583</v>
       </c>
       <c r="M13" t="n">
-        <v>259.5998947222598</v>
+        <v>263.8427543791583</v>
       </c>
       <c r="N13" t="n">
-        <v>259.5998947222598</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="O13" t="n">
-        <v>263.8427543791584</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="P13" t="n">
-        <v>385.3268090894745</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894745</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="R13" t="n">
-        <v>376.2325924295969</v>
+        <v>376.2325924295972</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347155</v>
+        <v>334.6739073347158</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688456</v>
+        <v>304.8460822688459</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135988</v>
+        <v>209.447369013599</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074774</v>
+        <v>158.0358081074775</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995648</v>
+        <v>60.96597254995658</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757985</v>
+        <v>32.97820939757991</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>257.7182395201401</v>
+        <v>257.718239520141</v>
       </c>
       <c r="C14" t="n">
-        <v>257.7182395201401</v>
+        <v>257.718239520141</v>
       </c>
       <c r="D14" t="n">
-        <v>133.7675664150323</v>
+        <v>133.7675664150328</v>
       </c>
       <c r="E14" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F14" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G14" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J14" t="n">
         <v>126.9687252395236</v>
@@ -5282,46 +5282,46 @@
         <v>126.9687252395236</v>
       </c>
       <c r="L14" t="n">
-        <v>175.3558544907352</v>
+        <v>248.4527799498401</v>
       </c>
       <c r="M14" t="n">
-        <v>273.0379160149498</v>
+        <v>369.9368346601566</v>
       </c>
       <c r="N14" t="n">
-        <v>350.2498749533992</v>
+        <v>447.1487935986062</v>
       </c>
       <c r="O14" t="n">
-        <v>386.2495795577943</v>
+        <v>483.1484982030013</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2495795577943</v>
+        <v>483.1484982030013</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962285</v>
       </c>
       <c r="S14" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="T14" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="U14" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="V14" t="n">
-        <v>366.893992391119</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="W14" t="n">
-        <v>257.7182395201401</v>
+        <v>381.6689126252492</v>
       </c>
       <c r="X14" t="n">
-        <v>257.7182395201401</v>
+        <v>381.6689126252492</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.7182395201401</v>
+        <v>257.718239520141</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.27751947477148</v>
+        <v>123.3607474293886</v>
       </c>
       <c r="C15" t="n">
-        <v>62.27751947477148</v>
+        <v>123.3607474293886</v>
       </c>
       <c r="D15" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="E15" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F15" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G15" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H15" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I15" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K15" t="n">
-        <v>48.69249843149187</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2520893996963</v>
+        <v>41.68857104703277</v>
       </c>
       <c r="M15" t="n">
-        <v>284.6566804676646</v>
+        <v>163.1726257573493</v>
       </c>
       <c r="N15" t="n">
-        <v>406.1407351779807</v>
+        <v>284.6566804676658</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779807</v>
+        <v>406.1407351779823</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="Q15" t="n">
-        <v>490.8446654962267</v>
+        <v>484.6416242957322</v>
       </c>
       <c r="R15" t="n">
-        <v>490.8446654962267</v>
+        <v>360.690951190624</v>
       </c>
       <c r="S15" t="n">
-        <v>490.8446654962267</v>
+        <v>360.690951190624</v>
       </c>
       <c r="T15" t="n">
-        <v>366.893992391119</v>
+        <v>339.7451410559531</v>
       </c>
       <c r="U15" t="n">
-        <v>323.443361912384</v>
+        <v>296.2945105772181</v>
       </c>
       <c r="V15" t="n">
-        <v>199.4926888072763</v>
+        <v>249.3880953974075</v>
       </c>
       <c r="W15" t="n">
-        <v>126.2674224541229</v>
+        <v>176.1628290442541</v>
       </c>
       <c r="X15" t="n">
-        <v>102.9327309873745</v>
+        <v>152.8281375775057</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.27751947477148</v>
+        <v>123.3607474293886</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924534</v>
+        <v>26.24559604012197</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924534</v>
+        <v>26.24559604012197</v>
       </c>
       <c r="D16" t="n">
-        <v>58.35552375023676</v>
+        <v>26.24559604012197</v>
       </c>
       <c r="E16" t="n">
-        <v>58.35552375023676</v>
+        <v>78.25567042853504</v>
       </c>
       <c r="F16" t="n">
-        <v>113.0873645424904</v>
+        <v>78.25567042853504</v>
       </c>
       <c r="G16" t="n">
-        <v>113.0873645424904</v>
+        <v>78.25567042853504</v>
       </c>
       <c r="H16" t="n">
-        <v>113.0873645424904</v>
+        <v>78.25567042853504</v>
       </c>
       <c r="I16" t="n">
-        <v>113.0873645424904</v>
+        <v>78.25567042853504</v>
       </c>
       <c r="J16" t="n">
-        <v>186.654470452256</v>
+        <v>151.8227763383007</v>
       </c>
       <c r="K16" t="n">
-        <v>186.654470452256</v>
+        <v>151.8227763383007</v>
       </c>
       <c r="L16" t="n">
-        <v>308.1385251625721</v>
+        <v>151.8227763383007</v>
       </c>
       <c r="M16" t="n">
-        <v>318.6055623903591</v>
+        <v>151.8227763383007</v>
       </c>
       <c r="N16" t="n">
-        <v>318.6055623903591</v>
+        <v>273.3068310486173</v>
       </c>
       <c r="O16" t="n">
-        <v>318.6055623903591</v>
+        <v>273.3068310486173</v>
       </c>
       <c r="P16" t="n">
         <v>318.6055623903591</v>
@@ -5473,13 +5473,13 @@
         <v>158.0358081074772</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995637</v>
+        <v>60.9659725499564</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757979</v>
+        <v>32.97820939757982</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154751</v>
+        <v>317.4102657154758</v>
       </c>
       <c r="C17" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633687</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203026</v>
+        <v>270.2537288203034</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111679</v>
+        <v>218.9076992111685</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733692</v>
+        <v>135.5209245733697</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400223</v>
+        <v>36.34803106400242</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I17" t="n">
-        <v>89.06417631464157</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J17" t="n">
-        <v>89.06417631464157</v>
+        <v>131.3009480202411</v>
       </c>
       <c r="K17" t="n">
-        <v>89.06417631464157</v>
+        <v>131.3009480202411</v>
       </c>
       <c r="L17" t="n">
-        <v>137.4513055658532</v>
+        <v>179.6880772714528</v>
       </c>
       <c r="M17" t="n">
-        <v>220.1672697440163</v>
+        <v>301.1721319817693</v>
       </c>
       <c r="N17" t="n">
-        <v>297.3792286824658</v>
+        <v>378.3840909202189</v>
       </c>
       <c r="O17" t="n">
-        <v>333.3789332868609</v>
+        <v>414.3837955246141</v>
       </c>
       <c r="P17" t="n">
-        <v>333.3789332868609</v>
+        <v>414.3837955246141</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.3606107859106</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R17" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="S17" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471769</v>
+        <v>490.6088666471783</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227587</v>
+        <v>473.18450192276</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923412</v>
+        <v>433.6528134923424</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914755</v>
+        <v>371.3909703914765</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>242.0169930872277</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="C18" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="D18" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="E18" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="F18" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="G18" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="H18" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="I18" t="n">
-        <v>9.816893309924534</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K18" t="n">
-        <v>48.69249843149187</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2520893996963</v>
+        <v>128.3764842781291</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7361441100124</v>
+        <v>249.8605389884456</v>
       </c>
       <c r="N18" t="n">
-        <v>410.2201988203285</v>
+        <v>369.3606107859119</v>
       </c>
       <c r="O18" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="Q18" t="n">
-        <v>490.8446654962267</v>
+        <v>484.6416242957322</v>
       </c>
       <c r="R18" t="n">
-        <v>366.893992391119</v>
+        <v>360.690951190624</v>
       </c>
       <c r="S18" t="n">
-        <v>365.9676661923355</v>
+        <v>360.690951190624</v>
       </c>
       <c r="T18" t="n">
-        <v>365.9676661923355</v>
+        <v>236.7402780855159</v>
       </c>
       <c r="U18" t="n">
-        <v>365.9676661923355</v>
+        <v>236.7402780855159</v>
       </c>
       <c r="V18" t="n">
-        <v>242.0169930872277</v>
+        <v>236.7402780855159</v>
       </c>
       <c r="W18" t="n">
-        <v>242.0169930872277</v>
+        <v>112.7896049804077</v>
       </c>
       <c r="X18" t="n">
-        <v>242.0169930872277</v>
+        <v>62.27751947477148</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.0169930872277</v>
+        <v>62.27751947477148</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154749</v>
+        <v>317.4102657154755</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633678</v>
+        <v>287.5525337633682</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203027</v>
+        <v>270.253728820303</v>
       </c>
       <c r="E20" t="n">
         <v>218.907699211168</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733693</v>
+        <v>135.5209245733697</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400221</v>
+        <v>36.34803106400241</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924534</v>
+        <v>89.06417631464146</v>
       </c>
       <c r="J20" t="n">
-        <v>9.816893309924534</v>
+        <v>89.06417631464146</v>
       </c>
       <c r="K20" t="n">
-        <v>9.816893309924534</v>
+        <v>125.0458538136922</v>
       </c>
       <c r="L20" t="n">
-        <v>58.20402256113617</v>
+        <v>173.4329830649039</v>
       </c>
       <c r="M20" t="n">
-        <v>140.9199867392993</v>
+        <v>256.1489472430671</v>
       </c>
       <c r="N20" t="n">
-        <v>218.1319456777488</v>
+        <v>333.3609061815167</v>
       </c>
       <c r="O20" t="n">
-        <v>254.1316502821439</v>
+        <v>369.3606107859119</v>
       </c>
       <c r="P20" t="n">
-        <v>254.1316502821439</v>
+        <v>369.3606107859119</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.1316502821439</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R20" t="n">
-        <v>323.8080988491208</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="S20" t="n">
-        <v>323.8080988491208</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="T20" t="n">
-        <v>421.0529775341723</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471769</v>
+        <v>490.6088666471781</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227587</v>
+        <v>473.1845019227597</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923412</v>
+        <v>433.6528134923422</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914754</v>
+        <v>371.3909703914762</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.27751947477148</v>
+        <v>242.0169930872282</v>
       </c>
       <c r="C21" t="n">
-        <v>62.27751947477148</v>
+        <v>242.0169930872282</v>
       </c>
       <c r="D21" t="n">
-        <v>62.27751947477148</v>
+        <v>118.06631998212</v>
       </c>
       <c r="E21" t="n">
-        <v>62.27751947477148</v>
+        <v>118.06631998212</v>
       </c>
       <c r="F21" t="n">
-        <v>62.27751947477148</v>
+        <v>118.06631998212</v>
       </c>
       <c r="G21" t="n">
-        <v>62.27751947477148</v>
+        <v>118.06631998212</v>
       </c>
       <c r="H21" t="n">
-        <v>62.27751947477148</v>
+        <v>118.06631998212</v>
       </c>
       <c r="I21" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K21" t="n">
-        <v>48.69249843149187</v>
+        <v>48.69249843149195</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996963</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M21" t="n">
-        <v>288.7361441100124</v>
+        <v>288.736144110013</v>
       </c>
       <c r="N21" t="n">
-        <v>406.1407351779807</v>
+        <v>410.2201988203295</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779807</v>
+        <v>410.2201988203295</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.6416242957305</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R21" t="n">
-        <v>484.6416242957305</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="S21" t="n">
-        <v>484.6416242957305</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="T21" t="n">
-        <v>484.6416242957305</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="U21" t="n">
-        <v>484.6416242957305</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="V21" t="n">
-        <v>484.6416242957305</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="W21" t="n">
-        <v>360.6909511906227</v>
+        <v>366.8939923911202</v>
       </c>
       <c r="X21" t="n">
-        <v>236.740278085515</v>
+        <v>242.943319286012</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.7896049804072</v>
+        <v>242.0169930872282</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154753</v>
+        <v>317.4102657154759</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633682</v>
+        <v>287.5525337633688</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203029</v>
+        <v>270.2537288203037</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111677</v>
+        <v>218.9076992111688</v>
       </c>
       <c r="F23" t="n">
-        <v>135.520924573369</v>
+        <v>135.52092457337</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400221</v>
+        <v>36.34803106400241</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I23" t="n">
-        <v>89.06417631464157</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J23" t="n">
-        <v>89.06417631464157</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K23" t="n">
-        <v>89.06417631464157</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="L23" t="n">
-        <v>137.4513055658532</v>
+        <v>58.20402256113628</v>
       </c>
       <c r="M23" t="n">
-        <v>220.1672697440163</v>
+        <v>140.9199867392995</v>
       </c>
       <c r="N23" t="n">
-        <v>297.3792286824658</v>
+        <v>262.404041449616</v>
       </c>
       <c r="O23" t="n">
-        <v>333.3789332868609</v>
+        <v>298.4037460540112</v>
       </c>
       <c r="P23" t="n">
-        <v>333.3789332868609</v>
+        <v>419.8878007643277</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.3789332868609</v>
+        <v>419.8878007643277</v>
       </c>
       <c r="R23" t="n">
-        <v>454.862987997177</v>
+        <v>419.8878007643277</v>
       </c>
       <c r="S23" t="n">
-        <v>454.862987997177</v>
+        <v>419.8878007643277</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471771</v>
+        <v>490.6088666471783</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227591</v>
+        <v>473.18450192276</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923424</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914758</v>
+        <v>371.3909703914765</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="C24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="D24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="E24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924534</v>
+        <v>48.69249843149195</v>
       </c>
       <c r="L24" t="n">
-        <v>128.376484278129</v>
+        <v>126.3925013652788</v>
       </c>
       <c r="M24" t="n">
-        <v>163.1726257573484</v>
+        <v>247.8765560755954</v>
       </c>
       <c r="N24" t="n">
-        <v>284.6566804676646</v>
+        <v>369.3606107859119</v>
       </c>
       <c r="O24" t="n">
-        <v>406.1407351779807</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962267</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="R24" t="n">
-        <v>366.893992391119</v>
+        <v>490.8446654962284</v>
       </c>
       <c r="S24" t="n">
-        <v>366.893992391119</v>
+        <v>381.6689126252492</v>
       </c>
       <c r="T24" t="n">
-        <v>366.893992391119</v>
+        <v>257.718239520141</v>
       </c>
       <c r="U24" t="n">
-        <v>310.178865684987</v>
+        <v>257.718239520141</v>
       </c>
       <c r="V24" t="n">
-        <v>186.2281925798792</v>
+        <v>133.7675664150328</v>
       </c>
       <c r="W24" t="n">
-        <v>186.2281925798792</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="X24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Y24" t="n">
-        <v>62.27751947477148</v>
+        <v>9.816893309924568</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924534</v>
+        <v>9.816893309924568</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686416</v>
+        <v>885.8369123686417</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666773</v>
+        <v>759.7242097666774</v>
       </c>
       <c r="E26" t="n">
         <v>599.5642824986435</v>
@@ -6215,34 +6215,34 @@
         <v>407.3636102019457</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336795</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070283</v>
+        <v>64.03178362070284</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J26" t="n">
         <v>171.7479657778252</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613045</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381361</v>
       </c>
       <c r="M26" t="n">
-        <v>929.908415941919</v>
+        <v>929.9084159419191</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936004</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q26" t="n">
         <v>1785.188566519004</v>
@@ -6257,19 +6257,19 @@
         <v>1779.617585787405</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054895</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546946</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W26" t="n">
         <v>1506.724471163629</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.378885074312</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.303144314547</v>
+        <v>1187.303144314548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>583.3058723762788</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C27" t="n">
-        <v>583.3058723762788</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D27" t="n">
-        <v>422.5257561373105</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E27" t="n">
-        <v>248.962552258725</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F27" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G27" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H27" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268949</v>
+        <v>74.94981493268955</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5094059008939</v>
+        <v>193.5094059008941</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836085</v>
+        <v>376.6175206836087</v>
       </c>
       <c r="N27" t="n">
-        <v>582.9918519763008</v>
+        <v>582.9918519763012</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0369642505271</v>
+        <v>716.0369642505275</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7408945687731</v>
+        <v>800.7408945687736</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.5378533682768</v>
+        <v>800.7408945687736</v>
       </c>
       <c r="R27" t="n">
-        <v>794.5378533682768</v>
+        <v>783.578026106258</v>
       </c>
       <c r="S27" t="n">
-        <v>707.2481114169508</v>
+        <v>590.1590429250925</v>
       </c>
       <c r="T27" t="n">
-        <v>705.2002954023737</v>
+        <v>588.1112269105155</v>
       </c>
       <c r="U27" t="n">
-        <v>680.6476590437327</v>
+        <v>563.5585905518744</v>
       </c>
       <c r="V27" t="n">
-        <v>652.6392379840159</v>
+        <v>535.5501694921577</v>
       </c>
       <c r="W27" t="n">
-        <v>598.3119657509565</v>
+        <v>266.151600222449</v>
       </c>
       <c r="X27" t="n">
-        <v>593.875268404302</v>
+        <v>261.7149028757945</v>
       </c>
       <c r="Y27" t="n">
-        <v>583.3058723762788</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K28" t="n">
-        <v>95.84719891455347</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L28" t="n">
-        <v>95.84719891455347</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="M28" t="n">
-        <v>95.84719891455347</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="N28" t="n">
-        <v>95.84719891455347</v>
+        <v>86.23851662579571</v>
       </c>
       <c r="O28" t="n">
-        <v>270.203950090137</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="P28" t="n">
-        <v>270.203950090137</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.203950090137</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R28" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153495</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695736</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344207</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V28" t="n">
         <v>127.5991422483932</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096622</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868353</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686422</v>
+        <v>885.8369123686415</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666779</v>
+        <v>759.7242097666772</v>
       </c>
       <c r="E29" t="n">
-        <v>599.564282498644</v>
+        <v>599.5642824986433</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019462</v>
+        <v>407.3636102019453</v>
       </c>
       <c r="G29" t="n">
-        <v>199.37681903368</v>
+        <v>199.3768190336791</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070287</v>
+        <v>64.03178362070285</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J29" t="n">
         <v>171.7479657778252</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613048</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381363</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419193</v>
       </c>
       <c r="N29" t="n">
         <v>1217.911753105989</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936004</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.188566519004</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054895</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546946</v>
       </c>
       <c r="W29" t="n">
         <v>1506.724471163629</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074312</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.303144314548</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>370.4175299286759</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="C30" t="n">
-        <v>370.4175299286759</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="D30" t="n">
-        <v>209.6374136897077</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07420981112215</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07420981112215</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112215</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112215</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268949</v>
+        <v>74.94981493268952</v>
       </c>
       <c r="L30" t="n">
-        <v>193.5094059008939</v>
+        <v>193.509405900894</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836085</v>
+        <v>376.6175206836087</v>
       </c>
       <c r="N30" t="n">
-        <v>582.9918519763008</v>
+        <v>582.9918519763011</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0369642505271</v>
+        <v>716.0369642505275</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687731</v>
+        <v>800.7408945687736</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687731</v>
+        <v>794.5378533682774</v>
       </c>
       <c r="R30" t="n">
-        <v>665.0181776548367</v>
+        <v>658.815136454341</v>
       </c>
       <c r="S30" t="n">
-        <v>665.0181776548367</v>
+        <v>658.815136454341</v>
       </c>
       <c r="T30" t="n">
-        <v>662.9703616402596</v>
+        <v>441.6960234031147</v>
       </c>
       <c r="U30" t="n">
-        <v>638.4177252816186</v>
+        <v>417.1433870444736</v>
       </c>
       <c r="V30" t="n">
-        <v>439.7508955364132</v>
+        <v>174.0636689481077</v>
       </c>
       <c r="W30" t="n">
-        <v>385.4236233033537</v>
+        <v>119.7363967150481</v>
       </c>
       <c r="X30" t="n">
-        <v>380.9869259566992</v>
+        <v>115.2996993683936</v>
       </c>
       <c r="Y30" t="n">
-        <v>370.4175299286759</v>
+        <v>104.7303033403703</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112215</v>
+        <v>79.85655725530128</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112215</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80358600786144</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="J31" t="n">
-        <v>83.80358600786144</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="K31" t="n">
-        <v>83.80358600786144</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="L31" t="n">
-        <v>83.80358600786144</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="M31" t="n">
-        <v>270.2039500901372</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2039500901372</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2039500901372</v>
+        <v>116.7335391553835</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153497</v>
+        <v>247.5432591153499</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695738</v>
+        <v>236.6134281695739</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344208</v>
+        <v>160.1127090344209</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483932</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096628</v>
+        <v>49.42730081096632</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868356</v>
+        <v>40.33753177868357</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979647</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686416</v>
+        <v>885.8369123686409</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666773</v>
+        <v>759.7242097666765</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986435</v>
+        <v>599.5642824986427</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019462</v>
+        <v>407.3636102019448</v>
       </c>
       <c r="G32" t="n">
-        <v>199.37681903368</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0317836207028</v>
+        <v>64.03178362070284</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J32" t="n">
         <v>171.7479657778252</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613047</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381364</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419187</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O32" t="n">
         <v>1464.702835936003</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R32" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S32" t="n">
         <v>1789.212139823152</v>
@@ -6743,7 +6743,7 @@
         <v>1358.378885074312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.303144314548</v>
+        <v>1187.303144314547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>676.7986555281013</v>
+        <v>246.6560614548028</v>
       </c>
       <c r="C33" t="n">
-        <v>676.7986555281013</v>
+        <v>246.6560614548028</v>
       </c>
       <c r="D33" t="n">
-        <v>516.0185392891331</v>
+        <v>85.87594521583455</v>
       </c>
       <c r="E33" t="n">
-        <v>516.0185392891331</v>
+        <v>85.87594521583455</v>
       </c>
       <c r="F33" t="n">
-        <v>355.5908230063771</v>
+        <v>85.87594521583455</v>
       </c>
       <c r="G33" t="n">
-        <v>205.3495120424912</v>
+        <v>85.87594521583455</v>
       </c>
       <c r="H33" t="n">
-        <v>78.39960229820512</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L33" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M33" t="n">
         <v>376.6175206836086</v>
@@ -6807,22 +6807,22 @@
         <v>800.7408945687732</v>
       </c>
       <c r="T33" t="n">
-        <v>798.6930785541962</v>
+        <v>583.621781517547</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1404421955551</v>
+        <v>559.0691451589059</v>
       </c>
       <c r="V33" t="n">
-        <v>746.1320211358384</v>
+        <v>531.0607240991892</v>
       </c>
       <c r="W33" t="n">
-        <v>691.8047489027789</v>
+        <v>476.7334518661297</v>
       </c>
       <c r="X33" t="n">
-        <v>687.3680515561244</v>
+        <v>472.2967545194751</v>
       </c>
       <c r="Y33" t="n">
-        <v>676.7986555281013</v>
+        <v>246.6560614548028</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="L34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="M34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="N34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="O34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.7415452287913</v>
       </c>
       <c r="P34" t="n">
-        <v>189.5446207458761</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153494</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695735</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344206</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483931</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096617</v>
+        <v>49.42730081096627</v>
       </c>
       <c r="X34" t="n">
-        <v>40.3375317786835</v>
+        <v>40.33753177868354</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561321</v>
       </c>
       <c r="C35" t="n">
-        <v>669.321906245795</v>
+        <v>669.321906245794</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444989</v>
+        <v>578.9573114444981</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771333</v>
+        <v>454.5454919771327</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811033</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135062</v>
+        <v>125.854244113506</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586251</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880004</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="K35" t="n">
-        <v>445.114616026915</v>
+        <v>266.7686372401123</v>
       </c>
       <c r="L35" t="n">
-        <v>493.5017452781266</v>
+        <v>560.9838651723788</v>
       </c>
       <c r="M35" t="n">
-        <v>576.2177094562898</v>
+        <v>643.699829350542</v>
       </c>
       <c r="N35" t="n">
-        <v>653.4296683947392</v>
+        <v>966.7398869700464</v>
       </c>
       <c r="O35" t="n">
-        <v>822.2880241264066</v>
+        <v>1101.153450136368</v>
       </c>
       <c r="P35" t="n">
-        <v>1054.693465189306</v>
+        <v>1101.153450136368</v>
       </c>
       <c r="Q35" t="n">
-        <v>1212.847195620277</v>
+        <v>1259.307180567339</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112816</v>
+        <v>1312.865825059878</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014882</v>
+        <v>1312.865825059878</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.865825059878</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.00877712804</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.707188420757</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.21703383811</v>
+        <v>1147.217033838108</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903647</v>
+        <v>899.2919225903635</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>361.9652496343538</v>
+        <v>335.7177293919276</v>
       </c>
       <c r="C36" t="n">
-        <v>361.9652496343538</v>
+        <v>335.7177293919276</v>
       </c>
       <c r="D36" t="n">
-        <v>201.1851333953856</v>
+        <v>335.7177293919276</v>
       </c>
       <c r="E36" t="n">
-        <v>27.62192951680004</v>
+        <v>186.6850327839535</v>
       </c>
       <c r="F36" t="n">
-        <v>27.62192951680004</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="G36" t="n">
-        <v>27.62192951680004</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="H36" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="I36" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276497</v>
+        <v>65.13292162276493</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R36" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S36" t="n">
-        <v>784.7209600583525</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="T36" t="n">
-        <v>784.7209600583525</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="U36" t="n">
-        <v>784.7209600583525</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="V36" t="n">
-        <v>784.7209600583525</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="W36" t="n">
-        <v>766.1417956259612</v>
+        <v>555.2257237752312</v>
       </c>
       <c r="X36" t="n">
-        <v>766.1417956259612</v>
+        <v>335.7177293919276</v>
       </c>
       <c r="Y36" t="n">
-        <v>540.5011025612889</v>
+        <v>335.7177293919276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="C37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="D37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="E37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="F37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="G37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="H37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="I37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="J37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="K37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="L37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="M37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="N37" t="n">
-        <v>69.11211744746612</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="O37" t="n">
-        <v>69.11211744746612</v>
+        <v>85.10926832696052</v>
       </c>
       <c r="P37" t="n">
-        <v>69.11211744746612</v>
+        <v>85.10926832696052</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.11211744746612</v>
+        <v>85.10926832696052</v>
       </c>
       <c r="R37" t="n">
-        <v>69.11211744746612</v>
+        <v>85.10926832696052</v>
       </c>
       <c r="S37" t="n">
-        <v>81.93909467851182</v>
+        <v>85.10926832696052</v>
       </c>
       <c r="T37" t="n">
-        <v>106.2634878239917</v>
+        <v>109.4336614724406</v>
       </c>
       <c r="U37" t="n">
-        <v>65.51087648950703</v>
+        <v>68.68105013795611</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795636</v>
+        <v>68.68105013795611</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.11555509622563</v>
+        <v>26.25731650119757</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561333</v>
+        <v>772.2454280561319</v>
       </c>
       <c r="C38" t="n">
-        <v>669.3219062457953</v>
+        <v>669.3219062457941</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444992</v>
+        <v>578.9573114444981</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771335</v>
+        <v>454.5454919771328</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811039</v>
+        <v>298.0929274811033</v>
       </c>
       <c r="G38" t="n">
-        <v>125.8542441135062</v>
+        <v>125.854244113506</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586251</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="J38" t="n">
-        <v>204.6032952880004</v>
+        <v>157.4029326535972</v>
       </c>
       <c r="K38" t="n">
-        <v>204.6032952880004</v>
+        <v>397.9142533925119</v>
       </c>
       <c r="L38" t="n">
-        <v>498.8185232202668</v>
+        <v>692.1294813247785</v>
       </c>
       <c r="M38" t="n">
-        <v>581.53448739843</v>
+        <v>774.8454455029416</v>
       </c>
       <c r="N38" t="n">
-        <v>772.8656619038559</v>
+        <v>852.0574044413911</v>
       </c>
       <c r="O38" t="n">
-        <v>1054.693465189306</v>
+        <v>1133.885207726841</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189306</v>
+        <v>1133.885207726841</v>
       </c>
       <c r="Q38" t="n">
-        <v>1212.847195620277</v>
+        <v>1292.038938157813</v>
       </c>
       <c r="R38" t="n">
-        <v>1266.405840112816</v>
+        <v>1292.038938157813</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014882</v>
+        <v>1312.865825059878</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.865825059878</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.00877712804</v>
+        <v>1311.008777128037</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.707188420757</v>
       </c>
       <c r="W38" t="n">
-        <v>1147.21703383811</v>
+        <v>1147.217033838108</v>
       </c>
       <c r="X38" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903647</v>
+        <v>899.2919225903632</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.25731650119762</v>
+        <v>387.339360615659</v>
       </c>
       <c r="C39" t="n">
-        <v>26.25731650119762</v>
+        <v>197.9270863486227</v>
       </c>
       <c r="D39" t="n">
-        <v>26.25731650119762</v>
+        <v>197.9270863486227</v>
       </c>
       <c r="E39" t="n">
-        <v>26.25731650119762</v>
+        <v>197.9270863486227</v>
       </c>
       <c r="F39" t="n">
-        <v>26.25731650119762</v>
+        <v>197.9270863486227</v>
       </c>
       <c r="G39" t="n">
-        <v>26.25731650119762</v>
+        <v>47.68577538473681</v>
       </c>
       <c r="H39" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276497</v>
+        <v>65.13292162276493</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7272,31 +7272,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q39" t="n">
-        <v>790.9240012588486</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="R39" t="n">
-        <v>717.2714567942073</v>
+        <v>648.9982431444161</v>
       </c>
       <c r="S39" t="n">
-        <v>717.2714567942073</v>
+        <v>648.9982431444161</v>
       </c>
       <c r="T39" t="n">
-        <v>717.2714567942073</v>
+        <v>648.9982431444161</v>
       </c>
       <c r="U39" t="n">
-        <v>717.2714567942073</v>
+        <v>648.9982431444161</v>
       </c>
       <c r="V39" t="n">
-        <v>474.1917386978414</v>
+        <v>405.9185250480501</v>
       </c>
       <c r="W39" t="n">
-        <v>204.7931694281327</v>
+        <v>387.339360615659</v>
       </c>
       <c r="X39" t="n">
-        <v>204.7931694281327</v>
+        <v>387.339360615659</v>
       </c>
       <c r="Y39" t="n">
-        <v>204.7931694281327</v>
+        <v>387.339360615659</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="C40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="D40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="E40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="F40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="G40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="H40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="J40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="K40" t="n">
-        <v>109.4336614724411</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="L40" t="n">
-        <v>109.4336614724411</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="M40" t="n">
-        <v>109.4336614724411</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="N40" t="n">
-        <v>109.4336614724411</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="O40" t="n">
-        <v>109.4336614724411</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="P40" t="n">
-        <v>109.4336614724411</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.4336614724411</v>
+        <v>109.4336614724406</v>
       </c>
       <c r="R40" t="n">
-        <v>109.4336614724411</v>
+        <v>109.4336614724406</v>
       </c>
       <c r="S40" t="n">
-        <v>109.4336614724411</v>
+        <v>109.4336614724406</v>
       </c>
       <c r="T40" t="n">
-        <v>109.4336614724411</v>
+        <v>109.4336614724406</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795636</v>
+        <v>68.68105013795611</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795636</v>
+        <v>68.68105013795611</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.25731650119762</v>
+        <v>26.25731650119757</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780265</v>
+        <v>820.8965178780263</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766009</v>
+        <v>710.1824620766007</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842175</v>
+        <v>612.0273332842173</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257643</v>
+        <v>479.8249798257641</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386475</v>
+        <v>315.5818813386473</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799621</v>
@@ -7409,22 +7409,22 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2401764340391</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1159948082887</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="L41" t="n">
-        <v>710.6957203758902</v>
+        <v>314.7449279441675</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4116845540534</v>
+        <v>604.4555698589151</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6236434925029</v>
+        <v>681.6675287973645</v>
       </c>
       <c r="O41" t="n">
-        <v>1144.815944413288</v>
+        <v>955.8598297181495</v>
       </c>
       <c r="P41" t="n">
         <v>1180.629768416384</v>
@@ -7448,13 +7448,13 @@
         <v>1317.520414207002</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633265</v>
       </c>
       <c r="X41" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353529</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033455</v>
+        <v>955.7335464033453</v>
       </c>
     </row>
     <row r="42">
@@ -7521,16 +7521,16 @@
         <v>792.8318871342171</v>
       </c>
       <c r="U42" t="n">
-        <v>792.8318871342171</v>
+        <v>553.2079537389269</v>
       </c>
       <c r="V42" t="n">
-        <v>549.7521690378512</v>
+        <v>310.128235642561</v>
       </c>
       <c r="W42" t="n">
-        <v>473.313889824542</v>
+        <v>40.72966637285231</v>
       </c>
       <c r="X42" t="n">
-        <v>253.8058954412383</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="Y42" t="n">
         <v>28.16520237656599</v>
@@ -7588,13 +7588,13 @@
         <v>28.16520237656599</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.5982426592354</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="R43" t="n">
-        <v>109.5982426592354</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="S43" t="n">
-        <v>114.7897175256162</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="T43" t="n">
         <v>131.4786083064313</v>
@@ -7649,25 +7649,25 @@
         <v>191.240176434039</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082886</v>
+        <v>191.240176434039</v>
       </c>
       <c r="L44" t="n">
-        <v>472.5031240595002</v>
+        <v>477.8199020016405</v>
       </c>
       <c r="M44" t="n">
-        <v>793.4116845540531</v>
+        <v>798.7284624961933</v>
       </c>
       <c r="N44" t="n">
-        <v>870.6236434925024</v>
+        <v>965.7832672416288</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8598297181496</v>
+        <v>1001.782971846024</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.629768416384</v>
+        <v>1226.552910544258</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.14799648269</v>
+        <v>1377.071138610564</v>
       </c>
       <c r="R44" t="n">
         <v>1377.071138610564</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>541.3819914860737</v>
+        <v>283.7585372190817</v>
       </c>
       <c r="C45" t="n">
-        <v>351.9697172190374</v>
+        <v>94.34626295204541</v>
       </c>
       <c r="D45" t="n">
-        <v>351.9697172190374</v>
+        <v>94.34626295204541</v>
       </c>
       <c r="E45" t="n">
-        <v>178.4065133404519</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F45" t="n">
-        <v>178.4065133404519</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="G45" t="n">
         <v>28.16520237656599</v>
@@ -7746,31 +7746,31 @@
         <v>792.8318871342167</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.6288459337204</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="R45" t="n">
-        <v>786.6288459337204</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="S45" t="n">
-        <v>786.6288459337204</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="T45" t="n">
-        <v>569.5097328824942</v>
+        <v>792.8318871342167</v>
       </c>
       <c r="U45" t="n">
-        <v>569.5097328824942</v>
+        <v>553.2079537389264</v>
       </c>
       <c r="V45" t="n">
-        <v>569.4588856323581</v>
+        <v>310.1282356425605</v>
       </c>
       <c r="W45" t="n">
-        <v>541.3819914860737</v>
+        <v>283.7585372190817</v>
       </c>
       <c r="X45" t="n">
-        <v>541.3819914860737</v>
+        <v>283.7585372190817</v>
       </c>
       <c r="Y45" t="n">
-        <v>541.3819914860737</v>
+        <v>283.7585372190817</v>
       </c>
     </row>
     <row r="46">
@@ -7795,40 +7795,40 @@
         <v>28.16520237656599</v>
       </c>
       <c r="G46" t="n">
-        <v>99.34876791151524</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="H46" t="n">
-        <v>99.34876791151524</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I46" t="n">
-        <v>131.4786083064313</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4786083064313</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064313</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064313</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064313</v>
+        <v>126.2871334400505</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064313</v>
+        <v>126.2871334400505</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064313</v>
+        <v>126.2871334400505</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064313</v>
+        <v>126.2871334400505</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064313</v>
+        <v>126.2871334400505</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064313</v>
+        <v>126.2871334400505</v>
       </c>
       <c r="S46" t="n">
         <v>131.4786083064313</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M12" t="n">
-        <v>239.5303559843449</v>
+        <v>239.5303559843453</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510103</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O12" t="n">
-        <v>155.9813982498997</v>
+        <v>243.5449469681795</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>199.2891999529629</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>132.1051855825677</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>152.7409950383625</v>
       </c>
       <c r="M15" t="n">
-        <v>235.409685638539</v>
+        <v>239.5303559843453</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510103</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O15" t="n">
-        <v>120.8337805941225</v>
+        <v>243.5449469681795</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.1051855825677</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>239.5303559843449</v>
+        <v>239.5303559843453</v>
       </c>
       <c r="N18" t="n">
-        <v>224.8661044510104</v>
+        <v>222.8620813067175</v>
       </c>
       <c r="O18" t="n">
-        <v>202.2726358223024</v>
+        <v>243.5449469681795</v>
       </c>
       <c r="P18" t="n">
         <v>120.8043485046934</v>
@@ -9486,16 +9486,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>239.5303559843449</v>
+        <v>239.5303559843453</v>
       </c>
       <c r="N21" t="n">
-        <v>220.7454341052045</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O21" t="n">
-        <v>120.8337805941225</v>
+        <v>120.8337805941224</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>202.2432037328741</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>199.0322326107652</v>
       </c>
       <c r="M24" t="n">
-        <v>151.9668072660655</v>
+        <v>239.5303559843453</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510103</v>
+        <v>224.8661044510107</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681791</v>
+        <v>243.5449469681795</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8756704904437</v>
+        <v>99.99929782245673</v>
       </c>
       <c r="C11" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>143.5605897548377</v>
       </c>
       <c r="E11" t="n">
         <v>177.2673421742465</v>
@@ -23270,13 +23270,13 @@
         <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9047710614199</v>
+        <v>101.9047710614195</v>
       </c>
       <c r="H11" t="n">
-        <v>29.9894328636834</v>
+        <v>29.98943286368298</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>33.06238140451855</v>
       </c>
       <c r="T11" t="n">
-        <v>22.44875793646876</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.93811835407755</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705668</v>
+        <v>126.6682137217624</v>
       </c>
       <c r="W11" t="n">
-        <v>143.6848939383772</v>
+        <v>143.6848939383773</v>
       </c>
       <c r="X11" t="n">
         <v>165.5711444073165</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.0739975310602</v>
+        <v>65.36283115700316</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>155.9939274937891</v>
       </c>
       <c r="D14" t="n">
-        <v>20.84942338078089</v>
+        <v>20.84942338078046</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742464</v>
+        <v>54.55617580018934</v>
       </c>
       <c r="F14" t="n">
         <v>208.9876797526238</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9047710614198</v>
+        <v>224.6159374354765</v>
       </c>
       <c r="H14" t="n">
         <v>152.70059923774</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037781</v>
+        <v>46.38701225037779</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451848</v>
+        <v>33.06238140451836</v>
       </c>
       <c r="T14" t="n">
         <v>28.20762267428236</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407745</v>
+        <v>55.93811835407746</v>
       </c>
       <c r="V14" t="n">
-        <v>3.957047347705625</v>
+        <v>126.6682137217623</v>
       </c>
       <c r="W14" t="n">
-        <v>35.60089859610807</v>
+        <v>35.60089859610767</v>
       </c>
       <c r="X14" t="n">
         <v>165.5711444073164</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310602</v>
+        <v>65.36283115700307</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959207.585788266</v>
+        <v>959207.5857882665</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959207.5857882663</v>
+        <v>959207.5857882667</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>507110.8972264642</v>
+        <v>507110.8972264643</v>
       </c>
       <c r="C2" t="n">
         <v>507110.8972264644</v>
       </c>
       <c r="D2" t="n">
-        <v>507110.8972264642</v>
+        <v>507110.8972264644</v>
       </c>
       <c r="E2" t="n">
         <v>436994.3011867758</v>
       </c>
       <c r="F2" t="n">
-        <v>436994.3011867757</v>
+        <v>436994.3011867758</v>
       </c>
       <c r="G2" t="n">
-        <v>508138.1655936587</v>
+        <v>508138.1655936588</v>
       </c>
       <c r="H2" t="n">
-        <v>508138.1655936586</v>
+        <v>508138.1655936585</v>
       </c>
       <c r="I2" t="n">
         <v>508138.1655936586</v>
       </c>
       <c r="J2" t="n">
-        <v>508138.1655936587</v>
+        <v>508138.1655936586</v>
       </c>
       <c r="K2" t="n">
         <v>508138.1655936586</v>
@@ -26344,16 +26344,16 @@
         <v>508138.1655936586</v>
       </c>
       <c r="M2" t="n">
-        <v>508138.1655936585</v>
+        <v>508138.1655936588</v>
       </c>
       <c r="N2" t="n">
-        <v>508138.1655936587</v>
+        <v>508138.1655936588</v>
       </c>
       <c r="O2" t="n">
         <v>508138.1655936582</v>
       </c>
       <c r="P2" t="n">
-        <v>508138.1655936584</v>
+        <v>508138.1655936583</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.994764991</v>
+        <v>275420.9947649912</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889623</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.5013781292</v>
+        <v>28312.5013781294</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053825</v>
+        <v>68757.72909053831</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,25 +26430,25 @@
         <v>338683.1874182847</v>
       </c>
       <c r="G4" t="n">
-        <v>409186.2663395518</v>
+        <v>409186.2663395517</v>
       </c>
       <c r="H4" t="n">
-        <v>409186.2663395518</v>
+        <v>409186.2663395517</v>
       </c>
       <c r="I4" t="n">
         <v>409186.2663395518</v>
       </c>
       <c r="J4" t="n">
-        <v>407456.400419902</v>
+        <v>407456.4004199019</v>
       </c>
       <c r="K4" t="n">
-        <v>407456.400419902</v>
+        <v>407456.4004199019</v>
       </c>
       <c r="L4" t="n">
-        <v>407456.4004199021</v>
+        <v>407456.4004199019</v>
       </c>
       <c r="M4" t="n">
-        <v>406912.0322437918</v>
+        <v>406912.0322437917</v>
       </c>
       <c r="N4" t="n">
         <v>406912.0322437917</v>
@@ -26457,7 +26457,7 @@
         <v>407014.9608031418</v>
       </c>
       <c r="P4" t="n">
-        <v>407014.9608031418</v>
+        <v>407014.9608031419</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538857</v>
+        <v>26051.3846553886</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538857</v>
+        <v>26051.3846553886</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505708</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505708</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505708</v>
       </c>
       <c r="J5" t="n">
         <v>47579.79330930412</v>
@@ -26497,13 +26497,13 @@
         <v>47579.79330930411</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="N5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="O5" t="n">
         <v>43895.8092789131</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27383.65237790891</v>
+        <v>27379.18599370378</v>
       </c>
       <c r="C6" t="n">
-        <v>27383.65237790909</v>
+        <v>27379.1859937039</v>
       </c>
       <c r="D6" t="n">
-        <v>27383.65237790891</v>
+        <v>27379.1859937039</v>
       </c>
       <c r="E6" t="n">
-        <v>-203161.2656518884</v>
+        <v>-203470.5868014838</v>
       </c>
       <c r="F6" t="n">
-        <v>72259.72911310245</v>
+        <v>71950.40796350734</v>
       </c>
       <c r="G6" t="n">
-        <v>-38876.54860991261</v>
+        <v>-38876.54860991234</v>
       </c>
       <c r="H6" t="n">
-        <v>62271.26967904974</v>
+        <v>62271.26967904972</v>
       </c>
       <c r="I6" t="n">
-        <v>62271.26967904974</v>
+        <v>62271.26967904978</v>
       </c>
       <c r="J6" t="n">
         <v>-101962.5435826029</v>
       </c>
       <c r="K6" t="n">
-        <v>53101.97186445252</v>
+        <v>53101.97186445259</v>
       </c>
       <c r="L6" t="n">
-        <v>-48045.84642451008</v>
+        <v>-48045.84642450983</v>
       </c>
       <c r="M6" t="n">
-        <v>29819.42298002864</v>
+        <v>29819.42298002877</v>
       </c>
       <c r="N6" t="n">
-        <v>58131.92435815805</v>
+        <v>58131.92435815818</v>
       </c>
       <c r="O6" t="n">
         <v>-11530.33357893503</v>
       </c>
       <c r="P6" t="n">
-        <v>57227.39551160348</v>
+        <v>57227.39551160331</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F2" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="G2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="J2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K2" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M2" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="N2" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="O2" t="n">
         <v>240.5985821377676</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="L3" t="n">
         <v>103.8244619716957</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.927622639027</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.9276226390267</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.9276226390267</v>
       </c>
       <c r="M4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649696</v>
       </c>
       <c r="N4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649696</v>
       </c>
       <c r="O4" t="n">
         <v>352.0650297070749</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.4347728612029</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.4858112050795</v>
+        <v>86.48581120507961</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612032</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266149</v>
+        <v>35.39062672266175</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.7731825539029</v>
+        <v>78.77318255390279</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210468</v>
+        <v>23.84857344210531</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.4347728612029</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.4858112050795</v>
+        <v>86.48581120507961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="E11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="G11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="J11" t="n">
-        <v>194.2115698873897</v>
+        <v>90.77427303393615</v>
       </c>
       <c r="K11" t="n">
-        <v>20.48775281635531</v>
+        <v>5.370482769838539</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>73.83527824152</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.71928865845149</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833907</v>
+        <v>13.558240018339</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>54.03932802360863</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28190,7 +28190,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>68.77362697529715</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
-        <v>92.23675554665728</v>
+        <v>92.23675554665685</v>
       </c>
       <c r="U12" t="n">
-        <v>183.7779686498542</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X12" t="n">
-        <v>194.2115698873897</v>
+        <v>177.6369578613623</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="13">
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>152.2176260696386</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F13" t="n">
-        <v>194.2115698873897</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959906883239</v>
@@ -28269,52 +28269,52 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K13" t="n">
-        <v>189.1853049475247</v>
+        <v>189.1853049475251</v>
       </c>
       <c r="L13" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926582</v>
+        <v>138.4992047233229</v>
       </c>
       <c r="O13" t="n">
-        <v>41.08837041104538</v>
+        <v>36.80265358589526</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345274</v>
+        <v>57.89996696047064</v>
       </c>
       <c r="Q13" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="14">
@@ -28351,13 +28351,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838617</v>
+        <v>5.370482769838539</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>73.83527824152002</v>
       </c>
       <c r="M14" t="n">
-        <v>15.11727004651664</v>
+        <v>39.15968740621547</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.55824001833908</v>
+        <v>13.558240018339</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.2115698873897</v>
+        <v>96.33387428617215</v>
       </c>
       <c r="R14" t="n">
         <v>194.2115698873897</v>
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>46.76389949830912</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28427,7 +28427,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,22 +28448,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337073997</v>
       </c>
       <c r="S15" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T15" t="n">
-        <v>92.23675554665728</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U15" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="V15" t="n">
-        <v>117.9377545413456</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W15" t="n">
         <v>194.2115698873897</v>
@@ -28472,7 +28472,7 @@
         <v>194.2115698873897</v>
       </c>
       <c r="Y15" t="n">
-        <v>183.1356267365486</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E16" t="n">
         <v>194.2115698873897</v>
       </c>
-      <c r="E16" t="n">
-        <v>141.676141212225</v>
-      </c>
       <c r="F16" t="n">
-        <v>194.2115698873897</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959906883239</v>
@@ -28509,22 +28509,22 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346795</v>
       </c>
       <c r="L16" t="n">
-        <v>154.1516967876645</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M16" t="n">
-        <v>35.03967909252382</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926583</v>
+        <v>138.4992047233229</v>
       </c>
       <c r="O16" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589526</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047068</v>
+        <v>103.6562612450583</v>
       </c>
       <c r="Q16" t="n">
         <v>194.2115698873897</v>
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="C17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="D17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="E17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="F17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="G17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="I17" t="n">
-        <v>320.6463427485928</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011799</v>
+        <v>198.587552494175</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838617</v>
+        <v>5.370482769838539</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>39.15968740621547</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833908</v>
+        <v>13.558240018339</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.9050967162961</v>
+        <v>165.7931699209068</v>
       </c>
       <c r="R17" t="n">
-        <v>316.9227362614463</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S17" t="n">
         <v>227.2739512919082</v>
@@ -28621,16 +28621,16 @@
         <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="W17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="X17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>64.80698515030925</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28661,10 +28661,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.65432337074041</v>
+        <v>11.65432337073996</v>
       </c>
       <c r="S18" t="n">
-        <v>190.5677304125581</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T18" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665685</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>117.9377545413456</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>143.9934172029545</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>167.3059497888908</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346795</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926579</v>
       </c>
       <c r="O19" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589526</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047064</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8163712014149</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5985821377675</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011794</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838617</v>
+        <v>41.71561155675847</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833908</v>
+        <v>13.558240018339</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937721</v>
+        <v>211.2711343034343</v>
       </c>
       <c r="R20" t="n">
-        <v>264.5918209651442</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S20" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>320.6463427485928</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>126.7435297470863</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>36.46114870252144</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28898,10 +28898,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337073996</v>
       </c>
       <c r="S21" t="n">
         <v>191.4847933493538</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>143.9934172029549</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>94.60174806541393</v>
+        <v>94.6017480654135</v>
       </c>
       <c r="Y21" t="n">
-        <v>100.6731197599689</v>
+        <v>222.4672231972296</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346795</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926579</v>
       </c>
       <c r="O22" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589526</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047064</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8163712014149</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="I23" t="n">
-        <v>320.6463427485928</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011794</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838617</v>
+        <v>5.370482769838539</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.71928865845149</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833908</v>
+        <v>136.2694063923961</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937721</v>
+        <v>88.55996792937714</v>
       </c>
       <c r="R23" t="n">
-        <v>316.9227362614463</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S23" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>258.764321348591</v>
+        <v>294.0927933009657</v>
       </c>
       <c r="U23" t="n">
         <v>250.1496882414672</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485926</v>
       </c>
     </row>
     <row r="24">
@@ -29138,7 +29138,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491254</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R24" t="n">
-        <v>11.65432337074041</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4847933493538</v>
+        <v>83.40079800708439</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665684</v>
       </c>
       <c r="U24" t="n">
-        <v>181.0797186222667</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V24" t="n">
-        <v>117.9377545413456</v>
+        <v>117.9377545413451</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>143.9934172029545</v>
       </c>
       <c r="X24" t="n">
-        <v>94.60174806541393</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346795</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926579</v>
       </c>
       <c r="O25" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589526</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047064</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8163712014149</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="27">
@@ -29357,13 +29357,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388978542471</v>
@@ -29375,7 +29375,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491215</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3654897447971</v>
+        <v>117.3742499669066</v>
       </c>
       <c r="S27" t="n">
-        <v>105.067948817541</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W27" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29457,49 +29457,49 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K28" t="n">
-        <v>126.8508952436006</v>
+        <v>66.47413857346795</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78803834926583</v>
+        <v>66.45905533378453</v>
       </c>
       <c r="O28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89996696047068</v>
+        <v>57.89996696047064</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R28" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="29">
@@ -29594,10 +29594,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29609,10 +29609,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1669324054735</v>
+        <v>39.19739981151777</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491254</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -29642,13 +29642,13 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
-        <v>43.96875946764897</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.9205840662826</v>
@@ -29682,34 +29682,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7818614221724</v>
+        <v>203.0313380889221</v>
       </c>
       <c r="I31" t="n">
-        <v>212.9205840662826</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J31" t="n">
         <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346795</v>
       </c>
       <c r="L31" t="n">
-        <v>31.44053041360788</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M31" t="n">
-        <v>212.7501102586742</v>
+        <v>24.46691421597132</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926579</v>
       </c>
       <c r="O31" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589526</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89996696047068</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8163712014149</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M32" t="n">
-        <v>212.920584066282</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662814</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="33">
@@ -29837,16 +29837,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.37669259617795</v>
       </c>
       <c r="I33" t="n">
-        <v>65.26479384326132</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J33" t="n">
         <v>51.93601990319846</v>
@@ -29879,22 +29879,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29922,7 +29922,7 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7818614221724</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I34" t="n">
         <v>164.7090929584652</v>
@@ -29946,34 +29946,34 @@
         <v>36.80265358589529</v>
       </c>
       <c r="P34" t="n">
-        <v>212.9205840662827</v>
+        <v>151.4459789163988</v>
       </c>
       <c r="Q34" t="n">
-        <v>208.2904412461227</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="C35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="D35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="E35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="F35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="G35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="H35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="I35" t="n">
-        <v>248.3112107889442</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J35" t="n">
-        <v>248.3112107889442</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="O35" t="n">
-        <v>134.2006577043155</v>
+        <v>99.40793794133968</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3112107889442</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="R35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="S35" t="n">
-        <v>248.3112107889442</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T35" t="n">
-        <v>248.3112107889442</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="V35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="W35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="X35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>24.28520219790531</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
-        <v>124.3294437613968</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I36" t="n">
         <v>107.1669324054735</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
@@ -30116,7 +30116,7 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276940613373</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.7346604136958</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30180,7 +30180,7 @@
         <v>15.78803834926581</v>
       </c>
       <c r="O37" t="n">
-        <v>36.80265358589529</v>
+        <v>96.24906957151443</v>
       </c>
       <c r="P37" t="n">
         <v>57.89996696047066</v>
@@ -30192,25 +30192,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>248.3112107889442</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="U37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="V37" t="n">
-        <v>248.3112107889442</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.3112107889442</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="C38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="D38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="E38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="F38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="G38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="H38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="I38" t="n">
-        <v>248.3112107889442</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J38" t="n">
-        <v>248.3112107889442</v>
+        <v>208.3467054659762</v>
       </c>
       <c r="K38" t="n">
-        <v>5.370482769838588</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="L38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>115.2719349161378</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="P38" t="n">
         <v>13.55824001833905</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="R38" t="n">
-        <v>248.3112107889442</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="T38" t="n">
-        <v>248.3112107889442</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="V38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="W38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="X38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30314,10 +30314,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6804106468432</v>
+        <v>104.4662363521394</v>
       </c>
       <c r="I39" t="n">
         <v>107.1669324054735</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>61.44947072480218</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.4847933493538</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30405,7 +30405,7 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>150.4906486454311</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
         <v>31.44053041360786</v>
@@ -30423,7 +30423,7 @@
         <v>57.89996696047066</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8163712014149</v>
+        <v>210.8328812733776</v>
       </c>
       <c r="R40" t="n">
         <v>203.2148443806685</v>
@@ -30435,13 +30435,13 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889444</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,16 +30481,16 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5985821377676</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5985821377676</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L41" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>209.085533067257</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>240.5985821377676</v>
       </c>
       <c r="P41" t="n">
-        <v>49.73381981944588</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5985821377676</v>
@@ -30593,19 +30593,19 @@
         <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>191.0306871558355</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.8740950831472</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30660,16 +30660,16 @@
         <v>57.89996696047066</v>
       </c>
       <c r="Q43" t="n">
-        <v>209.0719674465356</v>
+        <v>231.1733468881476</v>
       </c>
       <c r="R43" t="n">
         <v>203.2148443806685</v>
       </c>
       <c r="S43" t="n">
-        <v>240.5985821377676</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T43" t="n">
-        <v>240.5985821377676</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U43" t="n">
         <v>240.5985821377676</v>
@@ -30721,19 +30721,19 @@
         <v>240.5985821377676</v>
       </c>
       <c r="K44" t="n">
+        <v>5.370482769838667</v>
+      </c>
+      <c r="L44" t="n">
         <v>240.5985821377676</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>90.75034929998596</v>
       </c>
       <c r="O44" t="n">
-        <v>49.73381981944665</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.5985821377676</v>
@@ -30742,7 +30742,7 @@
         <v>240.5985821377676</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5985821377676</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S44" t="n">
         <v>240.5985821377676</v>
@@ -30782,13 +30782,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>106.308321870075</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H45" t="n">
         <v>125.6804106468432</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.141010788491283</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
@@ -30827,16 +30827,16 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>240.5985821377676</v>
-      </c>
-      <c r="W45" t="n">
-        <v>238.90845837219</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30867,13 +30867,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>240.5985821377676</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H46" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I46" t="n">
-        <v>197.1634771957541</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J46" t="n">
         <v>119.9013618977274</v>
@@ -30885,7 +30885,7 @@
         <v>31.4405304136079</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597139</v>
+        <v>123.5799758962587</v>
       </c>
       <c r="N46" t="n">
         <v>15.78803834926586</v>
@@ -30903,7 +30903,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3546681313223</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="T46" t="n">
         <v>223.7411167026008</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O11" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796903</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R11" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457411</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809974</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T12" t="n">
-        <v>0.900138495773474</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L14" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O14" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796901</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M15" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N15" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809973</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L17" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M17" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O17" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796901</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M18" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N18" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809973</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L20" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M20" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O20" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796901</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M21" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N21" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809973</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L23" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M23" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O23" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796901</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M24" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N24" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809973</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L26" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M26" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O26" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796901</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M27" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N27" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809973</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.4173847717455102</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638708</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093553</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892299</v>
       </c>
       <c r="L29" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M29" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175887</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448081</v>
       </c>
       <c r="O29" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043639</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796901</v>
+        <v>60.0204519079691</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815893</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150823</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964081</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053529</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243507</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954999</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615016</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895093</v>
       </c>
       <c r="M30" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457417</v>
       </c>
       <c r="N30" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471308</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809973</v>
+        <v>53.1336376280998</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078953</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586143</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.900138495773475</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514256</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325035</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057557</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310747</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026108</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772606</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508311</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901145</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3351837672717</v>
+        <v>14.89788691381822</v>
       </c>
       <c r="K11" t="n">
-        <v>15.11727004651671</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.87588813253701</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784163</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560553</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423756</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O12" t="n">
-        <v>35.14761765577727</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="P12" t="n">
-        <v>85.55952557398587</v>
+        <v>78.48485144826958</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.034975818927901</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.53542867516464</v>
       </c>
       <c r="F13" t="n">
-        <v>55.28468766894301</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.31020798966223</v>
+        <v>74.31020798966222</v>
       </c>
       <c r="K13" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,13 +35577,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O13" t="n">
-        <v>4.285716825150089</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.3351837672717</v>
+        <v>118.3351837672718</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.875888132537</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="M14" t="n">
-        <v>98.66874901435817</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99187771560551</v>
+        <v>77.99187771560561</v>
       </c>
       <c r="O14" t="n">
-        <v>36.36333798423746</v>
+        <v>36.36333798423756</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.6516019580125</v>
+        <v>7.773906356795013</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.26828800158317</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7571625941459</v>
+        <v>32.19361387586687</v>
       </c>
       <c r="M15" t="n">
-        <v>118.5904960282508</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398592</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.59464922242162</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.02891963667901</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.53542867516472</v>
       </c>
       <c r="F16" t="n">
-        <v>55.28468766894306</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.31020798966229</v>
+        <v>74.3102079896623</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>10.57276487655246</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>45.75629428458769</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597478</v>
+        <v>67.39519868597479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.04776061082529</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.875888132537</v>
+        <v>48.87588813253709</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784153</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560551</v>
+        <v>77.99187771560561</v>
       </c>
       <c r="O17" t="n">
-        <v>36.36333798423746</v>
+        <v>36.36333798423756</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.34512878691887</v>
+        <v>77.23320199152963</v>
       </c>
       <c r="R17" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.26828800158317</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7571625941459</v>
+        <v>119.757162594146</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N18" t="n">
-        <v>122.7111663740567</v>
+        <v>120.7071432297639</v>
       </c>
       <c r="O18" t="n">
-        <v>81.43885522817999</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.04776061082514</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>36.34512878691993</v>
       </c>
       <c r="L20" t="n">
-        <v>48.875888132537</v>
+        <v>48.87588813253709</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784163</v>
       </c>
       <c r="N20" t="n">
-        <v>77.99187771560551</v>
+        <v>77.99187771560561</v>
       </c>
       <c r="O20" t="n">
-        <v>36.36333798423746</v>
+        <v>36.36333798423756</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="R20" t="n">
-        <v>70.38025107775452</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.22715018692074</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.49665450712565</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>119.757162594146</v>
       </c>
       <c r="M21" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N21" t="n">
-        <v>118.5904960282508</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398587</v>
+        <v>81.43885522818074</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.04776061082529</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,31 +36361,31 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.875888132537</v>
+        <v>48.87588813253709</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784163</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560551</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O23" t="n">
-        <v>36.36333798423746</v>
+        <v>36.36333798423756</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>36.34512878691887</v>
+        <v>71.67360073929362</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>78.48485144826958</v>
       </c>
       <c r="M24" t="n">
-        <v>35.14761765577725</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740571</v>
       </c>
       <c r="P24" t="n">
-        <v>85.55952557398587</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>137.0441979461647</v>
       </c>
       <c r="K26" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L26" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M26" t="n">
-        <v>296.472063034124</v>
+        <v>296.4720630341243</v>
       </c>
       <c r="N26" t="n">
         <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2839220505201</v>
+        <v>249.2839220505202</v>
       </c>
       <c r="P26" t="n">
         <v>199.3623440479436</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R26" t="n">
         <v>18.709014178893</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L27" t="n">
-        <v>119.7571625941459</v>
+        <v>119.757162594146</v>
       </c>
       <c r="M27" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997118</v>
       </c>
       <c r="N27" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O27" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398592</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>60.37675667013265</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>50.67101698451874</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1179304803874</v>
+        <v>176.1179304803873</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.705739685614171</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K29" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M29" t="n">
         <v>296.4720630341242</v>
@@ -36844,13 +36844,13 @@
         <v>290.9124617818882</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505201</v>
+        <v>249.2839220505202</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R29" t="n">
         <v>18.70901417889297</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L30" t="n">
-        <v>119.7571625941459</v>
+        <v>119.757162594146</v>
       </c>
       <c r="M30" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997118</v>
       </c>
       <c r="N30" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O30" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398592</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.22459337795873</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>37.24947666674973</v>
       </c>
       <c r="I31" t="n">
-        <v>48.21149110781746</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.2831960427028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.020617105812</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.0441979461647</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5501012964441</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L32" t="n">
-        <v>261.7964721988197</v>
+        <v>261.7964721988196</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4720630341236</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N32" t="n">
         <v>290.9124617818882</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505202</v>
+        <v>249.2839220505201</v>
       </c>
       <c r="P32" t="n">
         <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369043</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889304</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13872264411027</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.020617105812</v>
+        <v>93.54601195592815</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.4740700447078</v>
+        <v>86.10421286486769</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.705739685614164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176658</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688262</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191056</v>
+        <v>242.9407280191058</v>
       </c>
       <c r="L35" t="n">
-        <v>48.87588813253703</v>
+        <v>297.1870989214814</v>
       </c>
       <c r="M35" t="n">
         <v>83.55147896784158</v>
       </c>
       <c r="N35" t="n">
-        <v>77.99187771560555</v>
+        <v>326.3030885045499</v>
       </c>
       <c r="O35" t="n">
-        <v>170.563995688553</v>
+        <v>135.7712759255772</v>
       </c>
       <c r="P35" t="n">
-        <v>234.7529707706051</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.751242859567</v>
+        <v>159.7512428595672</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155454</v>
+        <v>54.09964090155474</v>
       </c>
       <c r="S35" t="n">
-        <v>21.03725949703599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.8920182272721</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.11773974872777</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>59.44641598561914</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37488,16 +37488,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>12.95654265762192</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.57009408634334</v>
+        <v>24.57009408634354</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3.202195604494278</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.16993797477576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176658</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4348246688262</v>
+        <v>132.4703193458582</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>242.9407280191058</v>
       </c>
       <c r="L38" t="n">
-        <v>297.1870989214812</v>
+        <v>297.1870989214814</v>
       </c>
       <c r="M38" t="n">
         <v>83.55147896784158</v>
       </c>
       <c r="N38" t="n">
-        <v>193.2638126317433</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731817</v>
+        <v>284.6745487731819</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.751242859567</v>
+        <v>159.7512428595672</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155454</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.03725949703599</v>
+        <v>21.03725949703619</v>
       </c>
       <c r="T38" t="n">
-        <v>25.8920182272721</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>84.01651007196308</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.01651007196268</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176496</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.228099367929</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>289.4744702703046</v>
       </c>
       <c r="M41" t="n">
-        <v>83.55147896784158</v>
+        <v>292.6370120350986</v>
       </c>
       <c r="N41" t="n">
         <v>77.99187771560555</v>
@@ -37795,7 +37795,7 @@
         <v>276.961920122005</v>
       </c>
       <c r="P41" t="n">
-        <v>36.17557980110683</v>
+        <v>227.0403421194285</v>
       </c>
       <c r="Q41" t="n">
         <v>152.0386142083904</v>
@@ -37956,16 +37956,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.25559624512063</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.243914006445289</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.85746543516671</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2280993679289</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>48.87588813253693</v>
+        <v>289.4744702703045</v>
       </c>
       <c r="M44" t="n">
         <v>324.150061105609</v>
       </c>
       <c r="N44" t="n">
-        <v>77.99187771560544</v>
+        <v>168.7422270155914</v>
       </c>
       <c r="O44" t="n">
-        <v>86.09715780368404</v>
+        <v>36.36333798423739</v>
       </c>
       <c r="P44" t="n">
         <v>227.0403421194284</v>
@@ -38038,7 +38038,7 @@
         <v>152.0386142083903</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>13.32463084585935</v>
@@ -38163,13 +38163,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>71.90259144944368</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>32.45438423728893</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>99.11306168028733</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.243914006445284</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
